--- a/Analyse Ergebnisse/Analysis parameter_history_23_02_06_03_34.xlsx
+++ b/Analyse Ergebnisse/Analysis parameter_history_23_02_06_03_34.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Analyse Ergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C332560-7449-44F6-AAFE-5387E17DC7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C052F6B4-33F3-4D58-A654-D7B6AE8BBB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Nachbearbeitung" sheetId="2" r:id="rId2"/>
+    <sheet name="Neuer Simulation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Nachbearbeitung!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Nachbearbeitung!$B$2:$B$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -317,6 +314,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,13 +480,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -499,29 +499,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4536,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10726,7 +10723,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10759,651 +10756,651 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="21">
         <v>4.2263089999999996</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="12">
         <f>(E2-D2)/D2*100</f>
         <v>111.31544999999998</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="17">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>900000000</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="21">
         <v>922858170.93913698</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="12">
         <f>(E3-D3)/D3*100</f>
         <v>2.5397967710152201</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="17">
         <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="21">
         <v>5282.031782</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <f>(E4-D4)/D4*100</f>
         <v>428.20317819999997</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="17">
         <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>20</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="21">
         <v>32.230057000000002</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <f t="shared" ref="F5:F25" si="0">(E5-D5)/D5*100</f>
         <v>61.150285000000018</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="21">
         <v>1.2262299999999999</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>22.622999999999994</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="22">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="21">
         <v>1.25E-3</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.02</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="21">
         <v>1.7065E-2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>-14.674999999999999</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="17">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>210000000000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="21">
         <v>198947627818.43369</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>-5.2630343721744355</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="21">
         <v>3.9543689999999998</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>31.812299999999993</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.1</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="21">
         <v>9.5184000000000005E-2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>-4.8160000000000007</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>10</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="21">
         <v>9.3044030000000006</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>-6.9559699999999935</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>600</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="21">
         <v>570.39238799999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>-4.9346020000000035</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="17">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.75</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="21">
         <v>0.75337100000000001</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>0.4494666666666684</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="18">
         <v>8200000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>12</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="21">
         <v>11.631221</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>-3.0731583333333328</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>1000000000000</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="21">
         <v>1089680400241.066</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>8.9680400241066032</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="21">
         <v>0.93402099999999999</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>-6.597900000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>2300000000</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="21">
         <v>2910390968.1445651</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>26.538737745415876</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>3200000000</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="21">
         <v>11418513098.391081</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>256.82853432472126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.1</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="21">
         <v>8.1712000000000007E-2</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>-18.288</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>25000000</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="21">
         <v>381.46972599999998</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <f t="shared" si="0"/>
         <v>-99.99847412109601</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="21">
         <v>0.70689400000000002</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="12">
         <f t="shared" si="0"/>
         <v>-29.310599999999997</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>144000000000</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="21">
         <v>158297265160.52319</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f t="shared" si="0"/>
         <v>9.9286563614744399</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="21">
         <v>7.2822999999999999E-2</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="12">
         <f t="shared" si="0"/>
         <v>4.0328571428571314</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>8</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>10</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="23">
         <v>0.51556000000000002</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>-94.844399999999993</v>
       </c>
@@ -11413,4 +11410,16 @@
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73EAC9-AD5E-4F86-8997-B9B3C74E5661}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analyse Ergebnisse/Analysis parameter_history_23_02_06_03_34.xlsx
+++ b/Analyse Ergebnisse/Analysis parameter_history_23_02_06_03_34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Analyse Ergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C052F6B4-33F3-4D58-A654-D7B6AE8BBB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8003EA18-6D65-4970-918F-1E8F808D9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -480,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -496,9 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,13 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4533,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10723,7 +10720,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10756,31 +10753,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -10794,13 +10791,13 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="20">
         <v>2</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>4.2263089999999996</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="9">
         <f>(E2-D2)/D2*100</f>
         <v>111.31544999999998</v>
       </c>
@@ -10810,7 +10807,7 @@
       <c r="I2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>14</v>
       </c>
     </row>
@@ -10824,13 +10821,13 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="20">
         <v>900000000</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>922858170.93913698</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <f>(E3-D3)/D3*100</f>
         <v>2.5397967710152201</v>
       </c>
@@ -10840,7 +10837,7 @@
       <c r="I3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>3.8</v>
       </c>
     </row>
@@ -10854,13 +10851,13 @@
       <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="20">
         <v>1000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>5282.031782</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <f>(E4-D4)/D4*100</f>
         <v>428.20317819999997</v>
       </c>
@@ -10870,7 +10867,7 @@
       <c r="I4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>0.43</v>
       </c>
     </row>
@@ -10884,13 +10881,13 @@
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="20">
         <v>20</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>32.230057000000002</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F25" si="0">(E5-D5)/D5*100</f>
         <v>61.150285000000018</v>
       </c>
@@ -10900,7 +10897,7 @@
       <c r="I5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
@@ -10914,13 +10911,13 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>1.2262299999999999</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>22.622999999999994</v>
       </c>
@@ -10930,7 +10927,7 @@
       <c r="I6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="14">
         <v>3</v>
       </c>
     </row>
@@ -10944,13 +10941,13 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>1.25E-3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -10960,7 +10957,7 @@
       <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>600</v>
       </c>
     </row>
@@ -10974,13 +10971,13 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="20">
         <v>0.02</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>1.7065E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>-14.674999999999999</v>
       </c>
@@ -10990,7 +10987,7 @@
       <c r="I8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>28</v>
       </c>
     </row>
@@ -11004,13 +11001,13 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="20">
         <v>210000000000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>198947627818.43369</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>-5.2630343721744355</v>
       </c>
@@ -11020,7 +11017,7 @@
       <c r="I9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>0.7</v>
       </c>
     </row>
@@ -11034,13 +11031,13 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="20">
         <v>3</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>3.9543689999999998</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>31.812299999999993</v>
       </c>
@@ -11050,7 +11047,7 @@
       <c r="I10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>1</v>
       </c>
     </row>
@@ -11064,13 +11061,13 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="20">
         <v>0.1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>9.5184000000000005E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>-4.8160000000000007</v>
       </c>
@@ -11080,7 +11077,7 @@
       <c r="I11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>30</v>
       </c>
     </row>
@@ -11094,13 +11091,13 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="20">
         <v>10</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>9.3044030000000006</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>-6.9559699999999935</v>
       </c>
@@ -11110,7 +11107,7 @@
       <c r="I12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>1</v>
       </c>
     </row>
@@ -11124,13 +11121,13 @@
       <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="20">
         <v>600</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>570.39238799999998</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>-4.9346020000000035</v>
       </c>
@@ -11140,7 +11137,7 @@
       <c r="I13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <v>230</v>
       </c>
     </row>
@@ -11154,13 +11151,13 @@
       <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="20">
         <v>0.75</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>0.75337100000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>0.4494666666666684</v>
       </c>
@@ -11170,7 +11167,7 @@
       <c r="I14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>8200000</v>
       </c>
     </row>
@@ -11184,13 +11181,13 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="20">
         <v>12</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>11.631221</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>-3.0731583333333328</v>
       </c>
@@ -11205,13 +11202,13 @@
       <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="20">
         <v>1000000000000</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>1089680400241.066</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>8.9680400241066032</v>
       </c>
@@ -11226,13 +11223,13 @@
       <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>0.93402099999999999</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>-6.597900000000001</v>
       </c>
@@ -11247,13 +11244,13 @@
       <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="20">
         <v>2300000000</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>2910390968.1445651</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>26.538737745415876</v>
       </c>
@@ -11268,13 +11265,13 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="20">
         <v>3200000000</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>11418513098.391081</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>256.82853432472126</v>
       </c>
@@ -11289,13 +11286,13 @@
       <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="20">
         <v>0.1</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>8.1712000000000007E-2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>-18.288</v>
       </c>
@@ -11310,13 +11307,13 @@
       <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="20">
         <v>25000000</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>381.46972599999998</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>-99.99847412109601</v>
       </c>
@@ -11331,13 +11328,13 @@
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="20">
         <v>1</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>0.70689400000000002</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>-29.310599999999997</v>
       </c>
@@ -11352,13 +11349,13 @@
       <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="20">
         <v>144000000000</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>158297265160.52319</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>9.9286563614744399</v>
       </c>
@@ -11373,13 +11370,13 @@
       <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>7.2822999999999999E-2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>4.0328571428571314</v>
       </c>
@@ -11394,13 +11391,13 @@
       <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="21">
         <v>10</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="19">
         <v>0.51556000000000002</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>-94.844399999999993</v>
       </c>
